--- a/ods/25-KW46 Time-Sheet :: Thermokon ::.xlsx
+++ b/ods/25-KW46 Time-Sheet :: Thermokon ::.xlsx
@@ -3046,11 +3046,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10.11.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3094,11 +3090,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>11.11.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3142,11 +3134,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>12.11.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3190,11 +3178,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
